--- a/output.xlsx
+++ b/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,6 +433,12 @@
       <c r="J1" t="str">
         <v>Latitude</v>
       </c>
+      <c r="K1" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Kodepos</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -465,6 +471,12 @@
       <c r="J2" t="str">
         <v>-7.9932019</v>
       </c>
+      <c r="K2" t="str">
+        <v>Pisangcandi</v>
+      </c>
+      <c r="L2" t="str">
+        <v>65147</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -497,6 +509,12 @@
       <c r="J3" t="str">
         <v>-8.0985405</v>
       </c>
+      <c r="K3" t="str">
+        <v>Kepanjenkidul</v>
+      </c>
+      <c r="L3" t="str">
+        <v>66184</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -529,6 +547,12 @@
       <c r="J4" t="str">
         <v>-7.9771582</v>
       </c>
+      <c r="K4" t="str">
+        <v>Pisangcandi</v>
+      </c>
+      <c r="L4" t="str">
+        <v>65100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -561,6 +585,12 @@
       <c r="J5" t="str">
         <v>-7.9834961</v>
       </c>
+      <c r="K5" t="str">
+        <v>Mulyorejo</v>
+      </c>
+      <c r="L5" t="str">
+        <v>65147</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -593,6 +623,12 @@
       <c r="J6" t="str">
         <v>-7.8990251</v>
       </c>
+      <c r="K6" t="str">
+        <v>Oro-oro Ombo</v>
+      </c>
+      <c r="L6" t="str">
+        <v>65316</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -625,6 +661,12 @@
       <c r="J7" t="str">
         <v>-8.0311977</v>
       </c>
+      <c r="K7" t="str">
+        <v>Tidak ditemukan</v>
+      </c>
+      <c r="L7" t="str">
+        <v>66153</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -657,6 +699,12 @@
       <c r="J8" t="str">
         <v>-7.985139</v>
       </c>
+      <c r="K8" t="str">
+        <v>Polehan</v>
+      </c>
+      <c r="L8" t="str">
+        <v>65118</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -689,6 +737,12 @@
       <c r="J9" t="str">
         <v>-7.9798571</v>
       </c>
+      <c r="K9" t="str">
+        <v>Sawojajar</v>
+      </c>
+      <c r="L9" t="str">
+        <v>65139</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -721,6 +775,12 @@
       <c r="J10" t="str">
         <v>-8.1544581</v>
       </c>
+      <c r="K10" t="str">
+        <v>Tidak ditemukan</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Tidak ditemukan</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -753,6 +813,12 @@
       <c r="J11" t="str">
         <v>-7.9679937</v>
       </c>
+      <c r="K11" t="str">
+        <v>Bunulrejo</v>
+      </c>
+      <c r="L11" t="str">
+        <v>65121</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -785,6 +851,12 @@
       <c r="J12" t="str">
         <v>-8.0034232</v>
       </c>
+      <c r="K12" t="str">
+        <v>Tidak ditemukan</v>
+      </c>
+      <c r="L12" t="str">
+        <v>65148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -817,6 +889,12 @@
       <c r="J13" t="str">
         <v>-7.9701228</v>
       </c>
+      <c r="K13" t="str">
+        <v>Pandanlandung</v>
+      </c>
+      <c r="L13" t="str">
+        <v>16145</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -849,6 +927,12 @@
       <c r="J14" t="str">
         <v>-7.9556175</v>
       </c>
+      <c r="K14" t="str">
+        <v>Samaan</v>
+      </c>
+      <c r="L14" t="str">
+        <v>65113</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -881,6 +965,12 @@
       <c r="J15" t="str">
         <v>-7.3267837</v>
       </c>
+      <c r="K15" t="str">
+        <v>Jemur Wonosari</v>
+      </c>
+      <c r="L15" t="str">
+        <v>60143</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -913,6 +1003,12 @@
       <c r="J16" t="str">
         <v>-7.2670047</v>
       </c>
+      <c r="K16" t="str">
+        <v>Kedungdoro</v>
+      </c>
+      <c r="L16" t="str">
+        <v>60262</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -945,6 +1041,12 @@
       <c r="J17" t="str">
         <v>-7.2888776</v>
       </c>
+      <c r="K17" t="str">
+        <v>Pucang Sewu</v>
+      </c>
+      <c r="L17" t="str">
+        <v>60283</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -977,10 +1079,16 @@
       <c r="J18" t="str">
         <v>-7.2809832</v>
       </c>
+      <c r="K18" t="str">
+        <v>Lontar</v>
+      </c>
+      <c r="L18" t="str">
+        <v>60216</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L18"/>
   </ignoredErrors>
 </worksheet>
 </file>